--- a/Data/collapsed database manual cases/guerrero_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/guerrero_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/guerrero/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_64829DD08F79A8D366075C52F37BD2727A4DB244" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D16D8847-16C1-2943-9E22-3DC7DB7F9016}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EEAA6-DCA3-CB49-B69E-227917A51D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19580" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$548</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5646" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="1224">
   <si>
     <t>uniqueid</t>
   </si>
@@ -3599,6 +3612,102 @@
   </si>
   <si>
     <t>INE</t>
+  </si>
+  <si>
+    <t>YANELLY HERNANDEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO GASPAR BELTRAN</t>
+  </si>
+  <si>
+    <t>WILBERT SAITH GARCIA TRUJILLO</t>
+  </si>
+  <si>
+    <t>ELPIDIO NAVA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ESTEBAN CARDENAS SANTANA</t>
+  </si>
+  <si>
+    <t>CRISOFORO CASTRO CASTRO</t>
+  </si>
+  <si>
+    <t>TOMAS HERNANDEZ PALMA</t>
+  </si>
+  <si>
+    <t>JESUS YASIR DELOYA DIAZ</t>
+  </si>
+  <si>
+    <t>EFREN ANGEL ROMERO SOTELO</t>
+  </si>
+  <si>
+    <t>VICENTE JAIMES ZAGAL</t>
+  </si>
+  <si>
+    <t>ERIKA ALCARAZ SOSA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>MARTIN MORA AGUIRRE</t>
+  </si>
+  <si>
+    <t>ROGELIO RAMOS TECORRAL</t>
+  </si>
+  <si>
+    <t>NATIVIDAD LOPEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>PRI_PRD</t>
+  </si>
+  <si>
+    <t>AUSTREBERTA LOPEZ ROGEL</t>
+  </si>
+  <si>
+    <t>HOMERO HURTADO FLORES</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO DUARTE BAHENA</t>
+  </si>
+  <si>
+    <t>DELFINO TERRONES RAMIREZ</t>
+  </si>
+  <si>
+    <t>HENOS ROQUE RAMIREZ</t>
+  </si>
+  <si>
+    <t>DIONICIO MERCED PICHARDO GARCIA</t>
+  </si>
+  <si>
+    <t>NELZON GARCIA MORALES</t>
+  </si>
+  <si>
+    <t>JENNY GONZALEZ OCAMPO</t>
+  </si>
+  <si>
+    <t>AGUSTIN RICARDO MORALES</t>
+  </si>
+  <si>
+    <t>GUADALUPE MAIBELIN LUNA AYALA</t>
+  </si>
+  <si>
+    <t>Glorinda Casarrubias Nava</t>
+  </si>
+  <si>
+    <t>https://lasillarota.com/estados/2018/8/2/tribunal-tumba-triunfo-del-pan-en-dos-municipios-de-guerrero-165506.html</t>
+  </si>
+  <si>
+    <t>http://iepcgro.mx/proceso2018/asset/doc/resultados/Int_Ayuntamientos.xlsx</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>militancia</t>
+  </si>
+  <si>
+    <t>https://www.iepcgro.mx/proceso2021/repositorio/convenios_coaliciones_cand_comunes/convenio_coalicion_flexible_prd_pri.pdf</t>
   </si>
 </sst>
 </file>
@@ -3966,10 +4075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S548"/>
+  <dimension ref="A1:S583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H488" sqref="H488:I488"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I583" sqref="I583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25805,9 +25914,6 @@
       <c r="C488" t="s">
         <v>19</v>
       </c>
-      <c r="E488" t="s">
-        <v>347</v>
-      </c>
       <c r="F488" t="s">
         <v>1072</v>
       </c>
@@ -28477,6 +28583,724 @@
       </c>
       <c r="Q548" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>12002</v>
+      </c>
+      <c r="B549">
+        <v>2021</v>
+      </c>
+      <c r="C549" t="s">
+        <v>19</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H549" t="s">
+        <v>25</v>
+      </c>
+      <c r="I549" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>12004</v>
+      </c>
+      <c r="B550">
+        <v>2021</v>
+      </c>
+      <c r="C550" t="s">
+        <v>19</v>
+      </c>
+      <c r="F550" t="s">
+        <v>94</v>
+      </c>
+      <c r="H550" t="s">
+        <v>21</v>
+      </c>
+      <c r="I550" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>12005</v>
+      </c>
+      <c r="B551">
+        <v>2021</v>
+      </c>
+      <c r="C551" t="s">
+        <v>19</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H551" t="s">
+        <v>21</v>
+      </c>
+      <c r="I551" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>12011</v>
+      </c>
+      <c r="B552">
+        <v>2021</v>
+      </c>
+      <c r="C552" t="s">
+        <v>19</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H552" t="s">
+        <v>25</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>12017</v>
+      </c>
+      <c r="B553">
+        <v>2021</v>
+      </c>
+      <c r="C553" t="s">
+        <v>19</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H553" t="s">
+        <v>129</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>12029</v>
+      </c>
+      <c r="B554">
+        <v>2021</v>
+      </c>
+      <c r="C554" t="s">
+        <v>19</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H554" t="s">
+        <v>129</v>
+      </c>
+      <c r="I554" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>12030</v>
+      </c>
+      <c r="B555">
+        <v>2021</v>
+      </c>
+      <c r="C555" t="s">
+        <v>19</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H555" t="s">
+        <v>25</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>12033</v>
+      </c>
+      <c r="B556">
+        <v>2021</v>
+      </c>
+      <c r="C556" t="s">
+        <v>19</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H556" t="s">
+        <v>42</v>
+      </c>
+      <c r="I556" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>12039</v>
+      </c>
+      <c r="B557">
+        <v>2021</v>
+      </c>
+      <c r="C557" t="s">
+        <v>19</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H557" t="s">
+        <v>42</v>
+      </c>
+      <c r="I557" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>12042</v>
+      </c>
+      <c r="B558">
+        <v>2021</v>
+      </c>
+      <c r="C558" t="s">
+        <v>19</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H558" t="s">
+        <v>25</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>12048</v>
+      </c>
+      <c r="B559">
+        <v>2021</v>
+      </c>
+      <c r="C559" t="s">
+        <v>19</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H559" t="s">
+        <v>21</v>
+      </c>
+      <c r="I559" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>12049</v>
+      </c>
+      <c r="B560">
+        <v>2021</v>
+      </c>
+      <c r="C560" t="s">
+        <v>19</v>
+      </c>
+      <c r="F560" t="s">
+        <v>756</v>
+      </c>
+      <c r="H560" t="s">
+        <v>69</v>
+      </c>
+      <c r="I560" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>12051</v>
+      </c>
+      <c r="B561">
+        <v>2021</v>
+      </c>
+      <c r="C561" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H561" t="s">
+        <v>25</v>
+      </c>
+      <c r="I561" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>12052</v>
+      </c>
+      <c r="B562">
+        <v>2021</v>
+      </c>
+      <c r="C562" t="s">
+        <v>19</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H562" t="s">
+        <v>21</v>
+      </c>
+      <c r="I562" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>12053</v>
+      </c>
+      <c r="B563">
+        <v>2021</v>
+      </c>
+      <c r="C563" t="s">
+        <v>19</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H563" t="s">
+        <v>21</v>
+      </c>
+      <c r="I563" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>12054</v>
+      </c>
+      <c r="B564">
+        <v>2021</v>
+      </c>
+      <c r="C564" t="s">
+        <v>19</v>
+      </c>
+      <c r="F564" t="s">
+        <v>828</v>
+      </c>
+      <c r="H564" t="s">
+        <v>25</v>
+      </c>
+      <c r="I564" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>12055</v>
+      </c>
+      <c r="B565">
+        <v>2021</v>
+      </c>
+      <c r="C565" t="s">
+        <v>19</v>
+      </c>
+      <c r="F565" t="s">
+        <v>831</v>
+      </c>
+      <c r="H565" t="s">
+        <v>69</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>12056</v>
+      </c>
+      <c r="B566">
+        <v>2021</v>
+      </c>
+      <c r="C566" t="s">
+        <v>19</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I566" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>12057</v>
+      </c>
+      <c r="B567">
+        <v>2021</v>
+      </c>
+      <c r="C567" t="s">
+        <v>19</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H567" t="s">
+        <v>25</v>
+      </c>
+      <c r="I567" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>12058</v>
+      </c>
+      <c r="B568">
+        <v>2021</v>
+      </c>
+      <c r="C568" t="s">
+        <v>19</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H568" t="s">
+        <v>25</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>12060</v>
+      </c>
+      <c r="B569">
+        <v>2021</v>
+      </c>
+      <c r="C569" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H569" t="s">
+        <v>69</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>12061</v>
+      </c>
+      <c r="B570">
+        <v>2021</v>
+      </c>
+      <c r="C570" t="s">
+        <v>19</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H570" t="s">
+        <v>25</v>
+      </c>
+      <c r="I570" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>12064</v>
+      </c>
+      <c r="B571">
+        <v>2021</v>
+      </c>
+      <c r="C571" t="s">
+        <v>19</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H571" t="s">
+        <v>25</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>12066</v>
+      </c>
+      <c r="B572">
+        <v>2021</v>
+      </c>
+      <c r="C572" t="s">
+        <v>19</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I572" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>12067</v>
+      </c>
+      <c r="B573">
+        <v>2021</v>
+      </c>
+      <c r="C573" t="s">
+        <v>19</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H573" t="s">
+        <v>25</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>12074</v>
+      </c>
+      <c r="B574">
+        <v>2021</v>
+      </c>
+      <c r="C574" t="s">
+        <v>19</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H574" t="s">
+        <v>42</v>
+      </c>
+      <c r="I574" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>12075</v>
+      </c>
+      <c r="B575">
+        <v>2021</v>
+      </c>
+      <c r="C575" t="s">
+        <v>19</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H575" t="s">
+        <v>25</v>
+      </c>
+      <c r="I575" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>12078</v>
+      </c>
+      <c r="B576">
+        <v>2021</v>
+      </c>
+      <c r="C576" t="s">
+        <v>19</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H576" t="s">
+        <v>25</v>
+      </c>
+      <c r="I576" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>12081</v>
+      </c>
+      <c r="B577">
+        <v>2021</v>
+      </c>
+      <c r="C577" t="s">
+        <v>19</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H577" t="s">
+        <v>42</v>
+      </c>
+      <c r="I577" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>12005</v>
+      </c>
+      <c r="B578">
+        <v>2024</v>
+      </c>
+      <c r="C578" t="s">
+        <v>19</v>
+      </c>
+      <c r="E578" t="s">
+        <v>42</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H578" t="s">
+        <v>42</v>
+      </c>
+      <c r="I578" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>12046</v>
+      </c>
+      <c r="B579">
+        <v>2024</v>
+      </c>
+      <c r="C579" t="s">
+        <v>19</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F579" t="s">
+        <v>710</v>
+      </c>
+      <c r="H579" t="s">
+        <v>21</v>
+      </c>
+      <c r="I579" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>12047</v>
+      </c>
+      <c r="B580">
+        <v>2024</v>
+      </c>
+      <c r="C580" t="s">
+        <v>19</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H580" t="s">
+        <v>21</v>
+      </c>
+      <c r="I580" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>12051</v>
+      </c>
+      <c r="B581">
+        <v>2024</v>
+      </c>
+      <c r="C581" t="s">
+        <v>19</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H581" t="s">
+        <v>21</v>
+      </c>
+      <c r="I581" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>12058</v>
+      </c>
+      <c r="B582">
+        <v>2024</v>
+      </c>
+      <c r="C582" t="s">
+        <v>19</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H582" t="s">
+        <v>21</v>
+      </c>
+      <c r="I582" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>12074</v>
+      </c>
+      <c r="B583">
+        <v>2024</v>
+      </c>
+      <c r="C583" t="s">
+        <v>19</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H583" t="s">
+        <v>25</v>
+      </c>
+      <c r="I583" t="s">
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -28486,6 +29310,9 @@
         <filter val="CARLOS MORELOS ESTRADA"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A488:S583">
+      <sortCondition ref="B1:B583"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
